--- a/BackTest/2019-10-26 BackTest FX.xlsx
+++ b/BackTest/2019-10-26 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,19 @@
         <v>-96552.96979907833</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>87.90000000000001</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +818,23 @@
         <v>-97257.05119907833</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>85.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +859,23 @@
         <v>-97257.05119907833</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>85.40000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +900,19 @@
         <v>-97257.05119907833</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>85.40000000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>85.40000000000001</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +937,23 @@
         <v>-97225.05119907833</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>85.40000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +978,23 @@
         <v>-96646.05119907833</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>85.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1019,19 @@
         <v>-96646.05119907833</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>87.90000000000001</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1056,23 @@
         <v>-95856.76449907833</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1099,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1138,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1171,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1202,19 @@
         <v>-97667.39649907833</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>88.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>88.3</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,22 +1239,23 @@
         <v>-96937.39649907833</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>85.7</v>
       </c>
       <c r="J24" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>88.3</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1288,26 +1280,23 @@
         <v>-101075.3964990783</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="K25" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>88.3</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1332,64 +1321,60 @@
         <v>-113273.3752990783</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1200.7552</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-114474.1304990783</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
         <v>85.7</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="J27" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="C27" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="D27" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="E27" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1200.7552</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-114474.1304990783</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,26 +1399,23 @@
         <v>-101015.5098990783</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="K28" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>86.7</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1458,62 +1440,60 @@
         <v>-96180.51519907833</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J29" t="n">
         <v>87</v>
       </c>
-      <c r="K29" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>90</v>
+      </c>
+      <c r="D30" t="n">
+        <v>90</v>
+      </c>
+      <c r="E30" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1203.7202</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-94976.79499907834</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>87</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="C30" t="n">
-        <v>90</v>
-      </c>
-      <c r="D30" t="n">
-        <v>90</v>
-      </c>
-      <c r="E30" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1203.7202</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-94976.79499907834</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1538,18 +1518,23 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="J31" t="n">
+        <v>87</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1576,16 +1561,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1610,18 +1592,15 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1648,16 +1627,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1682,18 +1658,15 @@
         <v>-97122.75879907834</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1720,16 +1693,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1756,16 +1726,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1792,16 +1759,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1828,16 +1792,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1862,18 +1823,15 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1898,18 +1856,15 @@
         <v>-102004.6334990783</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1936,16 +1891,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1970,18 +1922,15 @@
         <v>-100620.5545990783</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2006,18 +1955,15 @@
         <v>-103864.7936990783</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2042,18 +1988,15 @@
         <v>-103542.9711990784</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,18 +2021,15 @@
         <v>-100021.0928990784</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2116,16 +2056,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2152,16 +2089,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2186,18 +2120,15 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2224,16 +2155,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2258,18 +2186,15 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2296,16 +2221,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2330,18 +2252,15 @@
         <v>-96525.80999907835</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2366,18 +2285,15 @@
         <v>-95990.97589907836</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2402,18 +2318,15 @@
         <v>-81368.29779907835</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2438,18 +2351,15 @@
         <v>-67983.64609907835</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2474,18 +2384,15 @@
         <v>14123.09340092164</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2510,18 +2417,15 @@
         <v>21585.94740092164</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2546,18 +2450,15 @@
         <v>-51908.47409907835</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2582,18 +2483,15 @@
         <v>-57766.51289907836</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2618,18 +2516,15 @@
         <v>-57529.47149907835</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2656,16 +2551,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2692,16 +2584,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2726,18 +2615,15 @@
         <v>-88763.96849907836</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2762,18 +2648,15 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2800,16 +2683,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2836,16 +2716,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2872,16 +2749,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2908,16 +2782,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2944,16 +2815,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2980,16 +2848,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3014,18 +2879,15 @@
         <v>-116604.7561990784</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3052,16 +2914,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3086,18 +2945,15 @@
         <v>-177736.1390990784</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3124,16 +2980,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3160,16 +3013,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3196,16 +3046,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3232,16 +3079,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3268,16 +3112,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3302,22 +3143,15 @@
         <v>-187571.3592990784</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="K80" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3344,22 +3178,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3386,22 +3211,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3428,16 +3244,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3464,16 +3277,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3500,16 +3310,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3536,16 +3343,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3572,16 +3376,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3608,16 +3409,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3644,16 +3442,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3680,16 +3475,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3716,16 +3508,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3752,16 +3541,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3788,16 +3574,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3824,16 +3607,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3860,16 +3640,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3896,16 +3673,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3932,16 +3706,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3968,16 +3739,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4004,16 +3772,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4040,16 +3805,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4076,16 +3838,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4112,16 +3871,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4148,16 +3904,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4184,16 +3937,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4220,16 +3970,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4256,16 +4003,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4292,16 +4036,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4328,16 +4069,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4364,16 +4102,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4400,16 +4135,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4436,16 +4168,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4472,16 +4201,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4508,16 +4234,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4544,16 +4267,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4578,24 +4298,15 @@
         <v>-185195.0618413861</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4620,24 +4331,15 @@
         <v>-185185.0618413861</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>87.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4664,20 +4366,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4704,20 +4399,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4744,20 +4432,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4782,24 +4463,15 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4824,24 +4496,15 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>88.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4866,24 +4529,15 @@
         <v>-196368.2552413861</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>88.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4908,24 +4562,15 @@
         <v>-181664.3665413861</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4950,24 +4595,15 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4992,24 +4628,15 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>89.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5034,26 +4661,17 @@
         <v>-182391.3665413861</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>89.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest FX.xlsx
+++ b/BackTest/2019-10-26 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,14 +781,10 @@
         <v>-96552.96979907833</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>87.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -818,19 +814,11 @@
         <v>-97257.05119907833</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -859,19 +847,11 @@
         <v>-97257.05119907833</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -900,14 +880,10 @@
         <v>-97257.05119907833</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>85.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -937,19 +913,11 @@
         <v>-97225.05119907833</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -978,19 +946,11 @@
         <v>-96646.05119907833</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1019,14 +979,10 @@
         <v>-96646.05119907833</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>87.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1056,19 +1012,11 @@
         <v>-95856.76449907833</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1100,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1202,14 +1144,10 @@
         <v>-97667.39649907833</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>88.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1239,19 +1177,11 @@
         <v>-96937.39649907833</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1280,19 +1210,11 @@
         <v>-101075.3964990783</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="J25" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1321,14 +1243,10 @@
         <v>-113273.3752990783</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>86.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1358,19 +1276,11 @@
         <v>-114474.1304990783</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1399,19 +1309,11 @@
         <v>-101015.5098990783</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="J28" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1440,14 +1342,10 @@
         <v>-96180.51519907833</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>87</v>
-      </c>
-      <c r="J29" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1477,19 +1375,11 @@
         <v>-94976.79499907834</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="J30" t="n">
-        <v>87</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1518,19 +1408,11 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>90</v>
-      </c>
-      <c r="J31" t="n">
-        <v>87</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1592,7 +1474,7 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1658,7 +1540,7 @@
         <v>-97122.75879907834</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1823,7 +1705,7 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1856,7 +1738,7 @@
         <v>-102004.6334990783</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1922,7 +1804,7 @@
         <v>-100620.5545990783</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1955,7 +1837,7 @@
         <v>-103864.7936990783</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1988,7 +1870,7 @@
         <v>-103542.9711990784</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2021,7 +1903,7 @@
         <v>-100021.0928990784</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2120,7 +2002,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2186,7 +2068,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2252,7 +2134,7 @@
         <v>-96525.80999907835</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2285,7 +2167,7 @@
         <v>-95990.97589907836</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2318,7 +2200,7 @@
         <v>-81368.29779907835</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2351,7 +2233,7 @@
         <v>-67983.64609907835</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2384,7 +2266,7 @@
         <v>14123.09340092164</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2417,7 +2299,7 @@
         <v>21585.94740092164</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2450,7 +2332,7 @@
         <v>-51908.47409907835</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2483,7 +2365,7 @@
         <v>-57766.51289907836</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2516,7 +2398,7 @@
         <v>-57529.47149907835</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2549,7 +2431,7 @@
         <v>-81104.98289907836</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2582,7 +2464,7 @@
         <v>-75812.38649907836</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2615,7 +2497,7 @@
         <v>-88763.96849907836</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2648,7 +2530,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2681,7 +2563,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2714,7 +2596,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2747,7 +2629,7 @@
         <v>-89953.98269907836</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2780,7 +2662,7 @@
         <v>-100248.3166990784</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2813,7 +2695,7 @@
         <v>-102754.9679990784</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2846,7 +2728,7 @@
         <v>-102744.9679990784</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2879,7 +2761,7 @@
         <v>-116604.7561990784</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2912,7 +2794,7 @@
         <v>-156967.7952990784</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2945,7 +2827,7 @@
         <v>-177736.1390990784</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2978,7 +2860,7 @@
         <v>-163629.4248990784</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3011,7 +2893,7 @@
         <v>-163655.5701990784</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3044,7 +2926,7 @@
         <v>-163655.5701990784</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3077,7 +2959,7 @@
         <v>-163655.5701990784</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3110,7 +2992,7 @@
         <v>-189290.8636990784</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3209,7 +3091,7 @@
         <v>-190238.1609990784</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4496,10 +4378,14 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="J121" t="n">
+        <v>88.90000000000001</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4529,11 +4415,19 @@
         <v>-196368.2552413861</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="J122" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4562,11 +4456,19 @@
         <v>-181664.3665413861</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="J123" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4595,11 +4497,19 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>89</v>
+      </c>
+      <c r="J124" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4628,11 +4538,19 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="J125" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4661,17 +4579,25 @@
         <v>-182391.3665413861</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="J126" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
       <c r="M126" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest FX.xlsx
+++ b/BackTest/2019-10-26 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1375,7 +1375,7 @@
         <v>-94976.79499907834</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-97122.75879907834</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-95017.14829907834</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-94840.93789907834</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-94808.68349907834</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-102004.6334990783</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-101598.7649990783</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-100620.5545990783</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-103864.7936990783</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-103542.9711990784</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-100021.0928990784</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-81368.29779907835</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-81104.98289907836</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-75812.38649907836</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-88763.96849907836</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-89953.98269907836</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-100248.3166990784</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-102754.9679990784</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-102744.9679990784</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-116604.7561990784</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-156967.7952990784</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-177736.1390990784</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-163629.4248990784</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-163655.5701990784</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-163655.5701990784</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-163655.5701990784</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-189290.8636990784</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-190238.1609990784</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-186901.3057990784</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-186901.3057990784</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -4147,10 +4147,14 @@
         <v>-183916.5732413861</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>90.3</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4183,8 +4187,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4265,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4301,19 @@
         <v>-185318.6982413861</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="J118" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,15 +4420,17 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>88.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>90.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,17 +4459,15 @@
         <v>-196368.2552413861</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>88.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>88.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4456,13 +4498,11 @@
         <v>-181664.3665413861</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>88.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4497,13 +4537,11 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>88.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4538,13 +4576,11 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>89.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>88.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4585,7 +4621,7 @@
         <v>89.90000000000001</v>
       </c>
       <c r="J126" t="n">
-        <v>88.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4598,6 +4634,6 @@
       <c r="M126" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest FX.xlsx
+++ b/BackTest/2019-10-26 BackTest FX.xlsx
@@ -1375,7 +1375,7 @@
         <v>-94976.79499907834</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-97122.75879907834</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-95017.14829907834</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-94840.93789907834</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-94808.68349907834</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-102004.6334990783</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-101598.7649990783</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-100620.5545990783</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-103864.7936990783</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-103542.9711990784</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-100021.0928990784</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-81368.29779907835</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>21585.94740092164</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-51908.47409907835</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-57766.51289907836</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-57529.47149907835</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-81104.98289907836</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-75812.38649907836</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-88763.96849907836</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-89953.98269907836</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-186901.3057990784</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-186901.3057990784</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -4114,10 +4114,14 @@
         <v>-181939.8788413861</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>90.3</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4155,7 +4159,11 @@
       <c r="J114" t="n">
         <v>90.3</v>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,9 +4192,11 @@
         <v>-185195.0618413861</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>90</v>
+      </c>
       <c r="J115" t="n">
         <v>90.3</v>
       </c>
@@ -4223,9 +4233,11 @@
         <v>-185185.0618413861</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>87.2</v>
+      </c>
       <c r="J116" t="n">
         <v>90.3</v>
       </c>
@@ -4262,9 +4274,11 @@
         <v>-185205.0618413861</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>92.2</v>
+      </c>
       <c r="J117" t="n">
         <v>90.3</v>
       </c>
@@ -4342,9 +4356,11 @@
         <v>-188844.1155413861</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>89</v>
+      </c>
       <c r="J119" t="n">
         <v>90.3</v>
       </c>
@@ -4381,9 +4397,11 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>87</v>
+      </c>
       <c r="J120" t="n">
         <v>90.3</v>
       </c>
@@ -4420,9 +4438,11 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>88.90000000000001</v>
+      </c>
       <c r="J121" t="n">
         <v>90.3</v>
       </c>
@@ -4459,9 +4479,11 @@
         <v>-196368.2552413861</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>88.90000000000001</v>
+      </c>
       <c r="J122" t="n">
         <v>90.3</v>
       </c>
@@ -4498,9 +4520,11 @@
         <v>-181664.3665413861</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>85.90000000000001</v>
+      </c>
       <c r="J123" t="n">
         <v>90.3</v>
       </c>
@@ -4537,9 +4561,11 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>89</v>
+      </c>
       <c r="J124" t="n">
         <v>90.3</v>
       </c>
@@ -4576,9 +4602,11 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>89.90000000000001</v>
+      </c>
       <c r="J125" t="n">
         <v>90.3</v>
       </c>

--- a/BackTest/2019-10-26 BackTest FX.xlsx
+++ b/BackTest/2019-10-26 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>984</v>
       </c>
       <c r="G2" t="n">
-        <v>-37287.34649999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>922</v>
       </c>
       <c r="G3" t="n">
-        <v>-37287.34649999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1748</v>
       </c>
       <c r="G4" t="n">
-        <v>-37287.34649999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3535.548700921659</v>
       </c>
       <c r="G5" t="n">
-        <v>-33751.79779907833</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1921.4111</v>
       </c>
       <c r="G6" t="n">
-        <v>-31830.38669907832</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-31820.38669907832</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>64058.7399</v>
       </c>
       <c r="G8" t="n">
-        <v>-95879.12659907833</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>-95869.12659907833</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>636.3389</v>
       </c>
       <c r="G10" t="n">
-        <v>-96505.46549907833</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>825</v>
       </c>
       <c r="G11" t="n">
-        <v>-96505.46549907833</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>47.5043</v>
       </c>
       <c r="G12" t="n">
-        <v>-96552.96979907833</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>704.0814</v>
       </c>
       <c r="G13" t="n">
-        <v>-97257.05119907833</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>292.9113</v>
       </c>
       <c r="G14" t="n">
-        <v>-97257.05119907833</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>478.4875</v>
       </c>
       <c r="G15" t="n">
-        <v>-97257.05119907833</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>-97225.05119907833</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>579</v>
       </c>
       <c r="G17" t="n">
-        <v>-96646.05119907833</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3451</v>
       </c>
       <c r="G18" t="n">
-        <v>-96646.05119907833</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>789.2867</v>
       </c>
       <c r="G19" t="n">
-        <v>-95856.76449907833</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>127.316</v>
       </c>
       <c r="G20" t="n">
-        <v>-95856.76449907833</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-95846.76449907833</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>906.3208</v>
       </c>
       <c r="G22" t="n">
-        <v>-96753.08529907833</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>914.3112</v>
       </c>
       <c r="G23" t="n">
-        <v>-97667.39649907833</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,19 @@
         <v>730</v>
       </c>
       <c r="G24" t="n">
-        <v>-96937.39649907833</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>85.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>85.7</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1137,21 @@
         <v>4138</v>
       </c>
       <c r="G25" t="n">
-        <v>-101075.3964990783</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1173,23 @@
         <v>12197.9788</v>
       </c>
       <c r="G26" t="n">
-        <v>-113273.3752990783</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>86.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1211,19 @@
         <v>1200.7552</v>
       </c>
       <c r="G27" t="n">
-        <v>-114474.1304990783</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>85.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>85.7</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1245,23 @@
         <v>13458.6206</v>
       </c>
       <c r="G28" t="n">
-        <v>-101015.5098990783</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>85.59999999999999</v>
+      </c>
+      <c r="I28" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1283,23 @@
         <v>4834.9947</v>
       </c>
       <c r="G29" t="n">
-        <v>-96180.51519907833</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="I29" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1321,23 @@
         <v>1203.7202</v>
       </c>
       <c r="G30" t="n">
-        <v>-94976.79499907834</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>89.40000000000001</v>
+      </c>
+      <c r="I30" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1359,21 @@
         <v>1019.6723</v>
       </c>
       <c r="G31" t="n">
-        <v>-93957.12269907833</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1395,21 @@
         <v>2017.4369</v>
       </c>
       <c r="G32" t="n">
-        <v>-93957.12269907833</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1431,21 @@
         <v>125.8061</v>
       </c>
       <c r="G33" t="n">
-        <v>-93831.31659907833</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1467,21 @@
         <v>119.2934</v>
       </c>
       <c r="G34" t="n">
-        <v>-93831.31659907833</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1503,21 @@
         <v>3291.4422</v>
       </c>
       <c r="G35" t="n">
-        <v>-97122.75879907834</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1539,21 @@
         <v>2105.6105</v>
       </c>
       <c r="G36" t="n">
-        <v>-95017.14829907834</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1575,21 @@
         <v>176.2104</v>
       </c>
       <c r="G37" t="n">
-        <v>-94840.93789907834</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1611,23 @@
         <v>32.2544</v>
       </c>
       <c r="G38" t="n">
-        <v>-94808.68349907834</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>92</v>
+      </c>
+      <c r="I38" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1649,23 @@
         <v>6403.95</v>
       </c>
       <c r="G39" t="n">
-        <v>-101212.6334990783</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>92.2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1687,23 @@
         <v>207.451</v>
       </c>
       <c r="G40" t="n">
-        <v>-101212.6334990783</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>92.09999999999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1725,23 @@
         <v>792</v>
       </c>
       <c r="G41" t="n">
-        <v>-102004.6334990783</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>92.09999999999999</v>
+      </c>
+      <c r="I41" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1763,23 @@
         <v>405.8685</v>
       </c>
       <c r="G42" t="n">
-        <v>-101598.7649990783</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>92</v>
+      </c>
+      <c r="I42" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1801,23 @@
         <v>978.2104</v>
       </c>
       <c r="G43" t="n">
-        <v>-100620.5545990783</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>92.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1839,21 @@
         <v>3244.2391</v>
       </c>
       <c r="G44" t="n">
-        <v>-103864.7936990783</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1875,23 @@
         <v>321.8225</v>
       </c>
       <c r="G45" t="n">
-        <v>-103542.9711990784</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>92.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1913,21 @@
         <v>3521.8783</v>
       </c>
       <c r="G46" t="n">
-        <v>-100021.0928990784</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1949,21 @@
         <v>10.5638</v>
       </c>
       <c r="G47" t="n">
-        <v>-100010.5290990784</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1985,21 @@
         <v>77.04340000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-100010.5290990784</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2021,21 @@
         <v>17.0454</v>
       </c>
       <c r="G49" t="n">
-        <v>-100010.5290990784</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2057,21 @@
         <v>2261.4994</v>
       </c>
       <c r="G50" t="n">
-        <v>-100010.5290990784</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2093,21 @@
         <v>900</v>
       </c>
       <c r="G51" t="n">
-        <v>-100010.5290990784</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2129,21 @@
         <v>699.9512</v>
       </c>
       <c r="G52" t="n">
-        <v>-99310.57789907836</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2165,21 @@
         <v>2784.7679</v>
       </c>
       <c r="G53" t="n">
-        <v>-96525.80999907835</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2201,21 @@
         <v>534.8341</v>
       </c>
       <c r="G54" t="n">
-        <v>-95990.97589907836</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2237,21 @@
         <v>14622.6781</v>
       </c>
       <c r="G55" t="n">
-        <v>-81368.29779907835</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2273,21 @@
         <v>13384.6517</v>
       </c>
       <c r="G56" t="n">
-        <v>-67983.64609907835</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2309,21 @@
         <v>82106.7395</v>
       </c>
       <c r="G57" t="n">
-        <v>14123.09340092164</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2345,21 @@
         <v>7462.854</v>
       </c>
       <c r="G58" t="n">
-        <v>21585.94740092164</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2381,21 @@
         <v>73494.4215</v>
       </c>
       <c r="G59" t="n">
-        <v>-51908.47409907835</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2417,21 @@
         <v>5858.0388</v>
       </c>
       <c r="G60" t="n">
-        <v>-57766.51289907836</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2453,21 @@
         <v>237.0414</v>
       </c>
       <c r="G61" t="n">
-        <v>-57529.47149907835</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2489,23 @@
         <v>23575.5114</v>
       </c>
       <c r="G62" t="n">
-        <v>-81104.98289907836</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1.143191365227538</v>
+      </c>
       <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>1.049295774647887</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2527,15 @@
         <v>5292.5964</v>
       </c>
       <c r="G63" t="n">
-        <v>-75812.38649907836</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2557,15 @@
         <v>12951.582</v>
       </c>
       <c r="G64" t="n">
-        <v>-88763.96849907836</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2587,15 @@
         <v>980.5843</v>
       </c>
       <c r="G65" t="n">
-        <v>-89744.55279907836</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2617,15 @@
         <v>3626.5458</v>
       </c>
       <c r="G66" t="n">
-        <v>-89744.55279907836</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2647,15 @@
         <v>5077.1049</v>
       </c>
       <c r="G67" t="n">
-        <v>-89744.55279907836</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2677,15 @@
         <v>209.4299</v>
       </c>
       <c r="G68" t="n">
-        <v>-89953.98269907836</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2707,15 @@
         <v>10294.334</v>
       </c>
       <c r="G69" t="n">
-        <v>-100248.3166990784</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2737,15 @@
         <v>2506.6513</v>
       </c>
       <c r="G70" t="n">
-        <v>-102754.9679990784</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2767,15 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-102744.9679990784</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2797,15 @@
         <v>13859.7882</v>
       </c>
       <c r="G72" t="n">
-        <v>-116604.7561990784</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2827,15 @@
         <v>40363.0391</v>
       </c>
       <c r="G73" t="n">
-        <v>-156967.7952990784</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2857,15 @@
         <v>20768.3438</v>
       </c>
       <c r="G74" t="n">
-        <v>-177736.1390990784</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2887,15 @@
         <v>14106.7142</v>
       </c>
       <c r="G75" t="n">
-        <v>-163629.4248990784</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2917,15 @@
         <v>26.1453</v>
       </c>
       <c r="G76" t="n">
-        <v>-163655.5701990784</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2947,15 @@
         <v>2225</v>
       </c>
       <c r="G77" t="n">
-        <v>-163655.5701990784</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2977,15 @@
         <v>16407.4339</v>
       </c>
       <c r="G78" t="n">
-        <v>-163655.5701990784</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3007,15 @@
         <v>25635.2935</v>
       </c>
       <c r="G79" t="n">
-        <v>-189290.8636990784</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3037,19 @@
         <v>1719.5044</v>
       </c>
       <c r="G80" t="n">
-        <v>-187571.3592990784</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>87.90000000000001</v>
+      </c>
+      <c r="I80" t="n">
+        <v>87.90000000000001</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3071,23 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-187561.3592990784</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>90.8</v>
+      </c>
+      <c r="I81" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3109,21 @@
         <v>2676.8017</v>
       </c>
       <c r="G82" t="n">
-        <v>-190238.1609990784</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3145,19 @@
         <v>1577.9441</v>
       </c>
       <c r="G83" t="n">
-        <v>-188660.2168990784</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>88.2</v>
+      </c>
+      <c r="I83" t="n">
+        <v>88.2</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3179,23 @@
         <v>7469.8908</v>
       </c>
       <c r="G84" t="n">
-        <v>-181190.3260990784</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>88.90000000000001</v>
+      </c>
+      <c r="I84" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3217,23 @@
         <v>1493.6038</v>
       </c>
       <c r="G85" t="n">
-        <v>-181190.3260990784</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>91.59999999999999</v>
+      </c>
+      <c r="I85" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3255,19 @@
         <v>202.0758</v>
       </c>
       <c r="G86" t="n">
-        <v>-180988.2502990784</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>91.59999999999999</v>
+      </c>
+      <c r="I86" t="n">
+        <v>91.59999999999999</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3289,23 @@
         <v>5923.0555</v>
       </c>
       <c r="G87" t="n">
-        <v>-186911.3057990784</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>91.7</v>
+      </c>
+      <c r="I87" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3327,21 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>-186901.3057990784</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3363,15 @@
         <v>299.2935</v>
       </c>
       <c r="G89" t="n">
-        <v>-186901.3057990784</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3393,15 @@
         <v>3381.586957692308</v>
       </c>
       <c r="G90" t="n">
-        <v>-183519.7188413861</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3423,15 @@
         <v>4.2307692307693e-05</v>
       </c>
       <c r="G91" t="n">
-        <v>-183519.7188413861</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3453,15 @@
         <v>36.9999576923077</v>
       </c>
       <c r="G92" t="n">
-        <v>-183519.7188413861</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3483,15 @@
         <v>3800</v>
       </c>
       <c r="G93" t="n">
-        <v>-179719.7188413861</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3513,15 @@
         <v>1281.3007</v>
       </c>
       <c r="G94" t="n">
-        <v>-179719.7188413861</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3543,15 @@
         <v>7469.8908</v>
       </c>
       <c r="G95" t="n">
-        <v>-179719.7188413861</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3573,15 @@
         <v>2292.06</v>
       </c>
       <c r="G96" t="n">
-        <v>-179719.7188413861</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3603,15 @@
         <v>20</v>
       </c>
       <c r="G97" t="n">
-        <v>-179739.7188413861</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3633,15 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-179729.7188413861</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3663,15 @@
         <v>7534.1397</v>
       </c>
       <c r="G99" t="n">
-        <v>-179729.7188413861</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3693,15 @@
         <v>2097</v>
       </c>
       <c r="G100" t="n">
-        <v>-181826.7188413861</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3723,15 @@
         <v>663.8048</v>
       </c>
       <c r="G101" t="n">
-        <v>-181826.7188413861</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3753,15 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>-181816.7188413861</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3783,15 @@
         <v>1125.3716</v>
       </c>
       <c r="G103" t="n">
-        <v>-182942.0904413861</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3813,15 @@
         <v>11472.062</v>
       </c>
       <c r="G104" t="n">
-        <v>-171470.0284413861</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3843,15 @@
         <v>8</v>
       </c>
       <c r="G105" t="n">
-        <v>-171470.0284413861</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3873,15 @@
         <v>1882</v>
       </c>
       <c r="G106" t="n">
-        <v>-173352.0284413861</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3903,15 @@
         <v>1206</v>
       </c>
       <c r="G107" t="n">
-        <v>-173352.0284413861</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3933,15 @@
         <v>5434.601</v>
       </c>
       <c r="G108" t="n">
-        <v>-178786.6294413861</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3963,15 @@
         <v>64.0835</v>
       </c>
       <c r="G109" t="n">
-        <v>-178722.5459413861</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3993,15 @@
         <v>100.0988</v>
       </c>
       <c r="G110" t="n">
-        <v>-178822.6447413861</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4023,15 @@
         <v>3117.2341</v>
       </c>
       <c r="G111" t="n">
-        <v>-181939.8788413861</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4053,15 @@
         <v>2918.1096</v>
       </c>
       <c r="G112" t="n">
-        <v>-181939.8788413861</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,22 +4083,15 @@
         <v>1021.6799</v>
       </c>
       <c r="G113" t="n">
-        <v>-181939.8788413861</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4148,26 +4113,15 @@
         <v>1976.6944</v>
       </c>
       <c r="G114" t="n">
-        <v>-183916.5732413861</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4189,26 +4143,15 @@
         <v>1278.4886</v>
       </c>
       <c r="G115" t="n">
-        <v>-185195.0618413861</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>90</v>
-      </c>
-      <c r="J115" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4230,26 +4173,15 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>-185185.0618413861</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4271,26 +4203,15 @@
         <v>20</v>
       </c>
       <c r="G117" t="n">
-        <v>-185205.0618413861</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4312,26 +4233,15 @@
         <v>113.6364</v>
       </c>
       <c r="G118" t="n">
-        <v>-185318.6982413861</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="J118" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4353,26 +4263,15 @@
         <v>3525.4173</v>
       </c>
       <c r="G119" t="n">
-        <v>-188844.1155413861</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>89</v>
-      </c>
-      <c r="J119" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4394,26 +4293,19 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>-188834.1155413861</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="I120" t="n">
         <v>87</v>
       </c>
-      <c r="J120" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4435,26 +4327,23 @@
         <v>28.6614</v>
       </c>
       <c r="G121" t="n">
-        <v>-188834.1155413861</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I121" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="J121" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4476,26 +4365,21 @@
         <v>7534.1397</v>
       </c>
       <c r="G122" t="n">
-        <v>-196368.2552413861</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="J122" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4517,26 +4401,23 @@
         <v>14703.8887</v>
       </c>
       <c r="G123" t="n">
-        <v>-181664.3665413861</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="I123" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="J123" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
+        <v>87</v>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4558,26 +4439,21 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-181654.3665413861</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>89</v>
-      </c>
-      <c r="J124" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
+        <v>87</v>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4599,26 +4475,21 @@
         <v>206</v>
       </c>
       <c r="G125" t="n">
-        <v>-181654.3665413861</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="J125" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
+        <v>87</v>
+      </c>
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4640,26 +4511,21 @@
         <v>737</v>
       </c>
       <c r="G126" t="n">
-        <v>-182391.3665413861</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="J126" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
+        <v>87</v>
+      </c>
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
